--- a/DoublesParable.xlsx
+++ b/DoublesParable.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="newDoubles"/>
   </sheets>
   <definedNames>
-    <definedName name="newDoubles">'newDoubles'!$A$1:$C$1</definedName>
+    <definedName name="newDoubles">'newDoubles'!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>

--- a/DoublesParable.xlsx
+++ b/DoublesParable.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="newDoubles"/>
   </sheets>
   <definedNames>
-    <definedName name="newDoubles">'newDoubles'!$A$1:$C$22</definedName>
+    <definedName name="newDoubles">'newDoubles'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
